--- a/Excel/FifthStage.xlsx
+++ b/Excel/FifthStage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE94578-D648-47AC-B754-653333B7F561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B3F54B-2E47-4187-9CB1-81E387E2A3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
@@ -232,16 +232,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -250,7 +246,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -273,9 +269,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
@@ -739,16 +732,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706EDC5C-04A0-48F3-8B37-5A4E1097AF7E}">
-  <dimension ref="A1:BN16"/>
+  <dimension ref="A1:BN19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BB6" sqref="BB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="100" width="3.09765625" style="8" customWidth="1"/>
-    <col min="101" max="16384" width="8.796875" style="8"/>
+    <col min="1" max="100" width="3.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -956,94 +948,94 @@
         <v>0</v>
       </c>
       <c r="B2" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C2" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D2" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E2" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F2" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G2" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H2" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="J2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="K2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L2" s="7">
         <v>20</v>
       </c>
       <c r="M2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="N2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="O2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="R2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="S2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="T2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="U2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="V2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="W2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="X2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="Y2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="Z2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AA2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AB2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AC2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AD2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AE2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AF2" s="7">
         <v>20</v>
@@ -1073,111 +1065,111 @@
         <v>20</v>
       </c>
       <c r="AO2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AP2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AQ2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AR2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AS2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AT2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AU2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AV2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AW2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AX2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AY2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AZ2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BA2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BB2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BC2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BD2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BE2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BF2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BG2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BH2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BI2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BJ2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BK2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BL2" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BM2" s="7">
-        <v>31</v>
-      </c>
-      <c r="BN2" s="13">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="BN2" s="7">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J3" s="1">
         <v>31</v>
@@ -1186,10 +1178,10 @@
         <v>31</v>
       </c>
       <c r="L3" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M3" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N3" s="1">
         <v>31</v>
@@ -1243,7 +1235,7 @@
         <v>31</v>
       </c>
       <c r="AE3" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AF3" s="1">
         <v>31</v>
@@ -1273,37 +1265,37 @@
         <v>31</v>
       </c>
       <c r="AO3" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AP3" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AQ3" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AR3" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AS3" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AT3" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AU3" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AV3" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AW3" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AX3" s="1">
         <v>20</v>
       </c>
       <c r="AY3" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AZ3" s="1">
         <v>31</v>
@@ -1347,49 +1339,49 @@
       <c r="BM3" s="1">
         <v>31</v>
       </c>
-      <c r="BN3" s="9">
+      <c r="BN3" s="8">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
         <v>31</v>
@@ -1443,7 +1435,7 @@
         <v>31</v>
       </c>
       <c r="AE4" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AF4" s="1">
         <v>31</v>
@@ -1506,7 +1498,7 @@
         <v>20</v>
       </c>
       <c r="AZ4" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BA4" s="1">
         <v>31</v>
@@ -1547,34 +1539,34 @@
       <c r="BM4" s="1">
         <v>31</v>
       </c>
-      <c r="BN4" s="9">
+      <c r="BN4" s="8">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -1583,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="M5" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
         <v>31</v>
@@ -1643,7 +1635,7 @@
         <v>31</v>
       </c>
       <c r="AE5" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AF5" s="1">
         <v>31</v>
@@ -1709,7 +1701,7 @@
         <v>20</v>
       </c>
       <c r="BA5" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BB5" s="1">
         <v>31</v>
@@ -1747,55 +1739,55 @@
       <c r="BM5" s="1">
         <v>31</v>
       </c>
-      <c r="BN5" s="9">
+      <c r="BN5" s="8">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G6" s="1">
+        <v>31</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
         <v>50</v>
       </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>31</v>
-      </c>
-      <c r="L6" s="1">
-        <v>31</v>
-      </c>
       <c r="M6" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>31</v>
@@ -1843,7 +1835,7 @@
         <v>31</v>
       </c>
       <c r="AE6" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AF6" s="1">
         <v>31</v>
@@ -1912,7 +1904,7 @@
         <v>20</v>
       </c>
       <c r="BB6" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BC6" s="1">
         <v>31</v>
@@ -1947,31 +1939,31 @@
       <c r="BM6" s="1">
         <v>31</v>
       </c>
-      <c r="BN6" s="9">
+      <c r="BN6" s="8">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -1983,19 +1975,19 @@
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>31</v>
@@ -2043,7 +2035,7 @@
         <v>31</v>
       </c>
       <c r="AE7" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AF7" s="1">
         <v>31</v>
@@ -2073,31 +2065,31 @@
         <v>31</v>
       </c>
       <c r="AO7" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AP7" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AQ7" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AR7" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AS7" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AT7" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AU7" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AV7" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AW7" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AX7" s="1">
         <v>0</v>
@@ -2112,7 +2104,7 @@
         <v>20</v>
       </c>
       <c r="BB7" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BC7" s="1">
         <v>31</v>
@@ -2147,52 +2139,52 @@
       <c r="BM7" s="1">
         <v>31</v>
       </c>
-      <c r="BN7" s="9">
+      <c r="BN7" s="8">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="M8" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
         <v>31</v>
@@ -2246,7 +2238,7 @@
         <v>31</v>
       </c>
       <c r="AF8" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AG8" s="1">
         <v>31</v>
@@ -2270,7 +2262,7 @@
         <v>31</v>
       </c>
       <c r="AN8" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AO8" s="1">
         <v>31</v>
@@ -2312,7 +2304,7 @@
         <v>20</v>
       </c>
       <c r="BB8" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BC8" s="1">
         <v>31</v>
@@ -2347,50 +2339,50 @@
       <c r="BM8" s="1">
         <v>31</v>
       </c>
-      <c r="BN8" s="9">
+      <c r="BN8" s="8">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1">
+        <v>31</v>
+      </c>
+      <c r="F9" s="1">
+        <v>31</v>
+      </c>
+      <c r="G9" s="1">
+        <v>31</v>
+      </c>
+      <c r="H9" s="1">
+        <v>31</v>
+      </c>
+      <c r="I9" s="1">
+        <v>31</v>
+      </c>
+      <c r="J9" s="1">
         <v>13</v>
       </c>
-      <c r="B9" s="1">
+      <c r="K9" s="1">
         <v>13</v>
       </c>
-      <c r="C9" s="1">
+      <c r="L9" s="1">
         <v>13</v>
       </c>
-      <c r="D9" s="1">
+      <c r="M9" s="1">
         <v>13</v>
       </c>
-      <c r="E9" s="1">
-        <v>13</v>
-      </c>
-      <c r="F9" s="1">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1">
-        <v>13</v>
-      </c>
-      <c r="H9" s="1">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1">
-        <v>31</v>
-      </c>
-      <c r="J9" s="1">
-        <v>31</v>
-      </c>
-      <c r="K9" s="1">
-        <v>31</v>
-      </c>
-      <c r="L9" s="1">
-        <v>20</v>
-      </c>
-      <c r="M9" s="1">
-        <v>20</v>
-      </c>
       <c r="N9" s="1">
         <v>31</v>
       </c>
@@ -2449,7 +2441,7 @@
         <v>31</v>
       </c>
       <c r="AG9" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AH9" s="1">
         <v>31</v>
@@ -2467,7 +2459,7 @@
         <v>31</v>
       </c>
       <c r="AM9" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AN9" s="1">
         <v>31</v>
@@ -2512,7 +2504,7 @@
         <v>20</v>
       </c>
       <c r="BB9" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BC9" s="1">
         <v>31</v>
@@ -2547,7 +2539,7 @@
       <c r="BM9" s="1">
         <v>31</v>
       </c>
-      <c r="BN9" s="9">
+      <c r="BN9" s="8">
         <v>31</v>
       </c>
     </row>
@@ -2556,10 +2548,10 @@
         <v>31</v>
       </c>
       <c r="B10" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1">
         <v>31</v>
@@ -2583,10 +2575,10 @@
         <v>31</v>
       </c>
       <c r="K10" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L10" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M10" s="1">
         <v>31</v>
@@ -2652,19 +2644,19 @@
         <v>31</v>
       </c>
       <c r="AH10" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AI10" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AJ10" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AK10" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AL10" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AM10" s="1">
         <v>31</v>
@@ -2697,7 +2689,7 @@
         <v>31</v>
       </c>
       <c r="AW10" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AX10" s="1">
         <v>20</v>
@@ -2712,7 +2704,7 @@
         <v>20</v>
       </c>
       <c r="BB10" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BC10" s="1">
         <v>31</v>
@@ -2747,7 +2739,7 @@
       <c r="BM10" s="1">
         <v>31</v>
       </c>
-      <c r="BN10" s="9">
+      <c r="BN10" s="8">
         <v>31</v>
       </c>
     </row>
@@ -2759,10 +2751,10 @@
         <v>31</v>
       </c>
       <c r="C11" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1">
         <v>31</v>
@@ -2780,10 +2772,10 @@
         <v>31</v>
       </c>
       <c r="J11" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="K11" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L11" s="1">
         <v>31</v>
@@ -2912,7 +2904,7 @@
         <v>20</v>
       </c>
       <c r="BB11" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BC11" s="1">
         <v>31</v>
@@ -2947,19 +2939,19 @@
       <c r="BM11" s="1">
         <v>31</v>
       </c>
-      <c r="BN11" s="9">
+      <c r="BN11" s="8">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.45">
-      <c r="A12" s="2">
-        <v>0</v>
+      <c r="A12" s="1">
+        <v>20</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -2977,10 +2969,10 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J12" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K12" s="1">
         <v>20</v>
@@ -3112,7 +3104,7 @@
         <v>20</v>
       </c>
       <c r="BB12" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="BC12" s="1">
         <v>31</v>
@@ -3147,7 +3139,7 @@
       <c r="BM12" s="1">
         <v>31</v>
       </c>
-      <c r="BN12" s="9">
+      <c r="BN12" s="8">
         <v>31</v>
       </c>
     </row>
@@ -3347,7 +3339,7 @@
       <c r="BM13" s="1">
         <v>31</v>
       </c>
-      <c r="BN13" s="9">
+      <c r="BN13" s="8">
         <v>31</v>
       </c>
     </row>
@@ -3491,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="AU14" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AV14" s="1">
         <v>31</v>
@@ -3547,7 +3539,7 @@
       <c r="BM14" s="1">
         <v>31</v>
       </c>
-      <c r="BN14" s="9">
+      <c r="BN14" s="8">
         <v>31</v>
       </c>
     </row>
@@ -3747,213 +3739,813 @@
       <c r="BM15" s="1">
         <v>31</v>
       </c>
-      <c r="BN15" s="9">
+      <c r="BN15" s="8">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:66" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="10">
-        <v>31</v>
-      </c>
-      <c r="B16" s="11">
-        <v>31</v>
-      </c>
-      <c r="C16" s="11">
-        <v>31</v>
-      </c>
-      <c r="D16" s="11">
-        <v>31</v>
-      </c>
-      <c r="E16" s="11">
-        <v>31</v>
-      </c>
-      <c r="F16" s="11">
-        <v>31</v>
-      </c>
-      <c r="G16" s="11">
-        <v>31</v>
-      </c>
-      <c r="H16" s="11">
-        <v>31</v>
-      </c>
-      <c r="I16" s="11">
-        <v>20</v>
-      </c>
-      <c r="J16" s="11">
-        <v>20</v>
-      </c>
-      <c r="K16" s="11">
-        <v>20</v>
-      </c>
-      <c r="L16" s="11">
-        <v>20</v>
-      </c>
-      <c r="M16" s="11">
-        <v>20</v>
-      </c>
-      <c r="N16" s="11">
-        <v>20</v>
-      </c>
-      <c r="O16" s="11">
-        <v>20</v>
-      </c>
-      <c r="P16" s="11">
-        <v>20</v>
-      </c>
-      <c r="Q16" s="11">
-        <v>20</v>
-      </c>
-      <c r="R16" s="11">
-        <v>20</v>
-      </c>
-      <c r="S16" s="11">
-        <v>20</v>
-      </c>
-      <c r="T16" s="11">
-        <v>20</v>
-      </c>
-      <c r="U16" s="11">
-        <v>20</v>
-      </c>
-      <c r="V16" s="11">
-        <v>20</v>
-      </c>
-      <c r="W16" s="11">
-        <v>20</v>
-      </c>
-      <c r="X16" s="11">
-        <v>20</v>
-      </c>
-      <c r="Y16" s="11">
-        <v>20</v>
-      </c>
-      <c r="Z16" s="11">
-        <v>20</v>
-      </c>
-      <c r="AA16" s="11">
-        <v>20</v>
-      </c>
-      <c r="AB16" s="11">
-        <v>20</v>
-      </c>
-      <c r="AC16" s="11">
-        <v>20</v>
-      </c>
-      <c r="AD16" s="11">
-        <v>20</v>
-      </c>
-      <c r="AE16" s="11">
-        <v>20</v>
-      </c>
-      <c r="AF16" s="11">
-        <v>20</v>
-      </c>
-      <c r="AG16" s="11">
-        <v>20</v>
-      </c>
-      <c r="AH16" s="11">
-        <v>20</v>
-      </c>
-      <c r="AI16" s="11">
-        <v>20</v>
-      </c>
-      <c r="AJ16" s="11">
-        <v>20</v>
-      </c>
-      <c r="AK16" s="11">
-        <v>20</v>
-      </c>
-      <c r="AL16" s="11">
-        <v>20</v>
-      </c>
-      <c r="AM16" s="11">
-        <v>20</v>
-      </c>
-      <c r="AN16" s="11">
-        <v>20</v>
-      </c>
-      <c r="AO16" s="11">
-        <v>20</v>
-      </c>
-      <c r="AP16" s="11">
-        <v>20</v>
-      </c>
-      <c r="AQ16" s="11">
-        <v>20</v>
-      </c>
-      <c r="AR16" s="11">
-        <v>20</v>
-      </c>
-      <c r="AS16" s="11">
-        <v>20</v>
-      </c>
-      <c r="AT16" s="11">
-        <v>20</v>
-      </c>
-      <c r="AU16" s="11">
-        <v>20</v>
-      </c>
-      <c r="AV16" s="11">
-        <v>20</v>
-      </c>
-      <c r="AW16" s="11">
-        <v>20</v>
-      </c>
-      <c r="AX16" s="11">
-        <v>20</v>
-      </c>
-      <c r="AY16" s="11">
-        <v>31</v>
-      </c>
-      <c r="AZ16" s="11">
-        <v>31</v>
-      </c>
-      <c r="BA16" s="11">
-        <v>31</v>
-      </c>
-      <c r="BB16" s="11">
-        <v>31</v>
-      </c>
-      <c r="BC16" s="11">
-        <v>31</v>
-      </c>
-      <c r="BD16" s="11">
-        <v>31</v>
-      </c>
-      <c r="BE16" s="11">
-        <v>31</v>
-      </c>
-      <c r="BF16" s="11">
-        <v>31</v>
-      </c>
-      <c r="BG16" s="11">
-        <v>31</v>
-      </c>
-      <c r="BH16" s="11">
-        <v>31</v>
-      </c>
-      <c r="BI16" s="11">
-        <v>31</v>
-      </c>
-      <c r="BJ16" s="11">
-        <v>31</v>
-      </c>
-      <c r="BK16" s="11">
-        <v>31</v>
-      </c>
-      <c r="BL16" s="11">
-        <v>31</v>
-      </c>
-      <c r="BM16" s="11">
-        <v>31</v>
-      </c>
-      <c r="BN16" s="12">
+      <c r="A16" s="9">
+        <v>31</v>
+      </c>
+      <c r="B16" s="10">
+        <v>31</v>
+      </c>
+      <c r="C16" s="10">
+        <v>31</v>
+      </c>
+      <c r="D16" s="10">
+        <v>31</v>
+      </c>
+      <c r="E16" s="10">
+        <v>31</v>
+      </c>
+      <c r="F16" s="10">
+        <v>31</v>
+      </c>
+      <c r="G16" s="10">
+        <v>31</v>
+      </c>
+      <c r="H16" s="10">
+        <v>31</v>
+      </c>
+      <c r="I16" s="10">
+        <v>20</v>
+      </c>
+      <c r="J16" s="10">
+        <v>20</v>
+      </c>
+      <c r="K16" s="10">
+        <v>20</v>
+      </c>
+      <c r="L16" s="10">
+        <v>20</v>
+      </c>
+      <c r="M16" s="10">
+        <v>20</v>
+      </c>
+      <c r="N16" s="10">
+        <v>20</v>
+      </c>
+      <c r="O16" s="10">
+        <v>20</v>
+      </c>
+      <c r="P16" s="10">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>20</v>
+      </c>
+      <c r="R16" s="10">
+        <v>20</v>
+      </c>
+      <c r="S16" s="10">
+        <v>20</v>
+      </c>
+      <c r="T16" s="10">
+        <v>20</v>
+      </c>
+      <c r="U16" s="10">
+        <v>20</v>
+      </c>
+      <c r="V16" s="10">
+        <v>20</v>
+      </c>
+      <c r="W16" s="10">
+        <v>20</v>
+      </c>
+      <c r="X16" s="10">
+        <v>20</v>
+      </c>
+      <c r="Y16" s="12">
+        <v>20</v>
+      </c>
+      <c r="Z16" s="12">
+        <v>31</v>
+      </c>
+      <c r="AA16" s="12">
+        <v>31</v>
+      </c>
+      <c r="AB16" s="12">
+        <v>31</v>
+      </c>
+      <c r="AC16" s="12">
+        <v>31</v>
+      </c>
+      <c r="AD16" s="12">
+        <v>31</v>
+      </c>
+      <c r="AE16" s="12">
+        <v>31</v>
+      </c>
+      <c r="AF16" s="12">
+        <v>31</v>
+      </c>
+      <c r="AG16" s="12">
+        <v>31</v>
+      </c>
+      <c r="AH16" s="12">
+        <v>31</v>
+      </c>
+      <c r="AI16" s="12">
+        <v>31</v>
+      </c>
+      <c r="AJ16" s="12">
+        <v>31</v>
+      </c>
+      <c r="AK16" s="12">
+        <v>31</v>
+      </c>
+      <c r="AL16" s="12">
+        <v>31</v>
+      </c>
+      <c r="AM16" s="12">
+        <v>31</v>
+      </c>
+      <c r="AN16" s="12">
+        <v>31</v>
+      </c>
+      <c r="AO16" s="12">
+        <v>31</v>
+      </c>
+      <c r="AP16" s="12">
+        <v>31</v>
+      </c>
+      <c r="AQ16" s="12">
+        <v>31</v>
+      </c>
+      <c r="AR16" s="12">
+        <v>31</v>
+      </c>
+      <c r="AS16" s="12">
+        <v>31</v>
+      </c>
+      <c r="AT16" s="12">
+        <v>31</v>
+      </c>
+      <c r="AU16" s="12">
+        <v>31</v>
+      </c>
+      <c r="AV16" s="12">
+        <v>31</v>
+      </c>
+      <c r="AW16" s="1">
+        <v>20</v>
+      </c>
+      <c r="AX16" s="1">
+        <v>20</v>
+      </c>
+      <c r="AY16" s="10">
+        <v>31</v>
+      </c>
+      <c r="AZ16" s="10">
+        <v>31</v>
+      </c>
+      <c r="BA16" s="10">
+        <v>31</v>
+      </c>
+      <c r="BB16" s="10">
+        <v>31</v>
+      </c>
+      <c r="BC16" s="10">
+        <v>31</v>
+      </c>
+      <c r="BD16" s="10">
+        <v>31</v>
+      </c>
+      <c r="BE16" s="10">
+        <v>31</v>
+      </c>
+      <c r="BF16" s="10">
+        <v>31</v>
+      </c>
+      <c r="BG16" s="10">
+        <v>31</v>
+      </c>
+      <c r="BH16" s="10">
+        <v>31</v>
+      </c>
+      <c r="BI16" s="10">
+        <v>31</v>
+      </c>
+      <c r="BJ16" s="10">
+        <v>31</v>
+      </c>
+      <c r="BK16" s="10">
+        <v>31</v>
+      </c>
+      <c r="BL16" s="10">
+        <v>31</v>
+      </c>
+      <c r="BM16" s="10">
+        <v>31</v>
+      </c>
+      <c r="BN16" s="11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="A17" s="12">
+        <v>31</v>
+      </c>
+      <c r="B17" s="12">
+        <v>31</v>
+      </c>
+      <c r="C17" s="12">
+        <v>31</v>
+      </c>
+      <c r="D17" s="12">
+        <v>31</v>
+      </c>
+      <c r="E17" s="12">
+        <v>31</v>
+      </c>
+      <c r="F17" s="12">
+        <v>31</v>
+      </c>
+      <c r="G17" s="12">
+        <v>31</v>
+      </c>
+      <c r="H17" s="12">
+        <v>31</v>
+      </c>
+      <c r="I17" s="12">
+        <v>31</v>
+      </c>
+      <c r="J17" s="12">
+        <v>31</v>
+      </c>
+      <c r="K17" s="12">
+        <v>31</v>
+      </c>
+      <c r="L17" s="12">
+        <v>31</v>
+      </c>
+      <c r="M17" s="12">
+        <v>31</v>
+      </c>
+      <c r="N17" s="12">
+        <v>31</v>
+      </c>
+      <c r="O17" s="12">
+        <v>31</v>
+      </c>
+      <c r="P17" s="12">
+        <v>31</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>31</v>
+      </c>
+      <c r="R17" s="12">
+        <v>31</v>
+      </c>
+      <c r="S17" s="12">
+        <v>31</v>
+      </c>
+      <c r="T17" s="12">
+        <v>31</v>
+      </c>
+      <c r="U17" s="12">
+        <v>31</v>
+      </c>
+      <c r="V17" s="12">
+        <v>31</v>
+      </c>
+      <c r="W17" s="12">
+        <v>31</v>
+      </c>
+      <c r="X17" s="12">
+        <v>31</v>
+      </c>
+      <c r="Y17" s="12">
+        <v>20</v>
+      </c>
+      <c r="Z17" s="12">
+        <v>20</v>
+      </c>
+      <c r="AA17" s="12">
+        <v>31</v>
+      </c>
+      <c r="AB17" s="12">
+        <v>31</v>
+      </c>
+      <c r="AC17" s="12">
+        <v>31</v>
+      </c>
+      <c r="AD17" s="12">
+        <v>31</v>
+      </c>
+      <c r="AE17" s="12">
+        <v>31</v>
+      </c>
+      <c r="AF17" s="12">
+        <v>31</v>
+      </c>
+      <c r="AG17" s="12">
+        <v>31</v>
+      </c>
+      <c r="AH17" s="12">
+        <v>31</v>
+      </c>
+      <c r="AI17" s="12">
+        <v>31</v>
+      </c>
+      <c r="AJ17" s="12">
+        <v>31</v>
+      </c>
+      <c r="AK17" s="12">
+        <v>31</v>
+      </c>
+      <c r="AL17" s="12">
+        <v>31</v>
+      </c>
+      <c r="AM17" s="12">
+        <v>31</v>
+      </c>
+      <c r="AN17" s="12">
+        <v>31</v>
+      </c>
+      <c r="AO17" s="12">
+        <v>31</v>
+      </c>
+      <c r="AP17" s="12">
+        <v>31</v>
+      </c>
+      <c r="AQ17" s="12">
+        <v>31</v>
+      </c>
+      <c r="AR17" s="12">
+        <v>31</v>
+      </c>
+      <c r="AS17" s="12">
+        <v>31</v>
+      </c>
+      <c r="AT17" s="12">
+        <v>31</v>
+      </c>
+      <c r="AU17" s="12">
+        <v>31</v>
+      </c>
+      <c r="AV17" s="1">
+        <v>20</v>
+      </c>
+      <c r="AW17" s="1">
+        <v>20</v>
+      </c>
+      <c r="AX17" s="12">
+        <v>31</v>
+      </c>
+      <c r="AY17" s="12">
+        <v>31</v>
+      </c>
+      <c r="AZ17" s="12">
+        <v>31</v>
+      </c>
+      <c r="BA17" s="12">
+        <v>31</v>
+      </c>
+      <c r="BB17" s="12">
+        <v>31</v>
+      </c>
+      <c r="BC17" s="12">
+        <v>31</v>
+      </c>
+      <c r="BD17" s="12">
+        <v>31</v>
+      </c>
+      <c r="BE17" s="12">
+        <v>31</v>
+      </c>
+      <c r="BF17" s="12">
+        <v>31</v>
+      </c>
+      <c r="BG17" s="12">
+        <v>31</v>
+      </c>
+      <c r="BH17" s="12">
+        <v>31</v>
+      </c>
+      <c r="BI17" s="12">
+        <v>31</v>
+      </c>
+      <c r="BJ17" s="12">
+        <v>31</v>
+      </c>
+      <c r="BK17" s="12">
+        <v>31</v>
+      </c>
+      <c r="BL17" s="12">
+        <v>31</v>
+      </c>
+      <c r="BM17" s="12">
+        <v>31</v>
+      </c>
+      <c r="BN17" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="A18" s="12">
+        <v>31</v>
+      </c>
+      <c r="B18" s="12">
+        <v>31</v>
+      </c>
+      <c r="C18" s="12">
+        <v>31</v>
+      </c>
+      <c r="D18" s="12">
+        <v>31</v>
+      </c>
+      <c r="E18" s="12">
+        <v>31</v>
+      </c>
+      <c r="F18" s="12">
+        <v>31</v>
+      </c>
+      <c r="G18" s="12">
+        <v>31</v>
+      </c>
+      <c r="H18" s="12">
+        <v>31</v>
+      </c>
+      <c r="I18" s="12">
+        <v>31</v>
+      </c>
+      <c r="J18" s="12">
+        <v>31</v>
+      </c>
+      <c r="K18" s="12">
+        <v>31</v>
+      </c>
+      <c r="L18" s="12">
+        <v>31</v>
+      </c>
+      <c r="M18" s="12">
+        <v>31</v>
+      </c>
+      <c r="N18" s="12">
+        <v>31</v>
+      </c>
+      <c r="O18" s="12">
+        <v>31</v>
+      </c>
+      <c r="P18" s="12">
+        <v>31</v>
+      </c>
+      <c r="Q18" s="12">
+        <v>31</v>
+      </c>
+      <c r="R18" s="12">
+        <v>31</v>
+      </c>
+      <c r="S18" s="12">
+        <v>31</v>
+      </c>
+      <c r="T18" s="12">
+        <v>31</v>
+      </c>
+      <c r="U18" s="12">
+        <v>31</v>
+      </c>
+      <c r="V18" s="12">
+        <v>31</v>
+      </c>
+      <c r="W18" s="12">
+        <v>31</v>
+      </c>
+      <c r="X18" s="12">
+        <v>31</v>
+      </c>
+      <c r="Y18" s="12">
+        <v>31</v>
+      </c>
+      <c r="Z18" s="12">
+        <v>20</v>
+      </c>
+      <c r="AA18" s="12">
+        <v>20</v>
+      </c>
+      <c r="AB18" s="12">
+        <v>31</v>
+      </c>
+      <c r="AC18" s="12">
+        <v>31</v>
+      </c>
+      <c r="AD18" s="12">
+        <v>31</v>
+      </c>
+      <c r="AE18" s="12">
+        <v>31</v>
+      </c>
+      <c r="AF18" s="12">
+        <v>31</v>
+      </c>
+      <c r="AG18" s="12">
+        <v>31</v>
+      </c>
+      <c r="AH18" s="12">
+        <v>31</v>
+      </c>
+      <c r="AI18" s="12">
+        <v>31</v>
+      </c>
+      <c r="AJ18" s="12">
+        <v>31</v>
+      </c>
+      <c r="AK18" s="12">
+        <v>31</v>
+      </c>
+      <c r="AL18" s="12">
+        <v>31</v>
+      </c>
+      <c r="AM18" s="12">
+        <v>31</v>
+      </c>
+      <c r="AN18" s="12">
+        <v>31</v>
+      </c>
+      <c r="AO18" s="12">
+        <v>31</v>
+      </c>
+      <c r="AP18" s="12">
+        <v>31</v>
+      </c>
+      <c r="AQ18" s="12">
+        <v>31</v>
+      </c>
+      <c r="AR18" s="12">
+        <v>31</v>
+      </c>
+      <c r="AS18" s="12">
+        <v>31</v>
+      </c>
+      <c r="AT18" s="12">
+        <v>31</v>
+      </c>
+      <c r="AU18" s="1">
+        <v>20</v>
+      </c>
+      <c r="AV18" s="1">
+        <v>20</v>
+      </c>
+      <c r="AW18" s="12">
+        <v>31</v>
+      </c>
+      <c r="AX18" s="12">
+        <v>31</v>
+      </c>
+      <c r="AY18" s="12">
+        <v>31</v>
+      </c>
+      <c r="AZ18" s="12">
+        <v>31</v>
+      </c>
+      <c r="BA18" s="12">
+        <v>31</v>
+      </c>
+      <c r="BB18" s="12">
+        <v>31</v>
+      </c>
+      <c r="BC18" s="12">
+        <v>31</v>
+      </c>
+      <c r="BD18" s="12">
+        <v>31</v>
+      </c>
+      <c r="BE18" s="12">
+        <v>31</v>
+      </c>
+      <c r="BF18" s="12">
+        <v>31</v>
+      </c>
+      <c r="BG18" s="12">
+        <v>31</v>
+      </c>
+      <c r="BH18" s="12">
+        <v>31</v>
+      </c>
+      <c r="BI18" s="12">
+        <v>31</v>
+      </c>
+      <c r="BJ18" s="12">
+        <v>31</v>
+      </c>
+      <c r="BK18" s="12">
+        <v>31</v>
+      </c>
+      <c r="BL18" s="12">
+        <v>31</v>
+      </c>
+      <c r="BM18" s="12">
+        <v>31</v>
+      </c>
+      <c r="BN18" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:66" x14ac:dyDescent="0.45">
+      <c r="A19" s="12">
+        <v>31</v>
+      </c>
+      <c r="B19" s="12">
+        <v>31</v>
+      </c>
+      <c r="C19" s="12">
+        <v>31</v>
+      </c>
+      <c r="D19" s="12">
+        <v>31</v>
+      </c>
+      <c r="E19" s="12">
+        <v>31</v>
+      </c>
+      <c r="F19" s="12">
+        <v>31</v>
+      </c>
+      <c r="G19" s="12">
+        <v>31</v>
+      </c>
+      <c r="H19" s="12">
+        <v>31</v>
+      </c>
+      <c r="I19" s="12">
+        <v>31</v>
+      </c>
+      <c r="J19" s="12">
+        <v>31</v>
+      </c>
+      <c r="K19" s="12">
+        <v>31</v>
+      </c>
+      <c r="L19" s="12">
+        <v>31</v>
+      </c>
+      <c r="M19" s="12">
+        <v>31</v>
+      </c>
+      <c r="N19" s="12">
+        <v>31</v>
+      </c>
+      <c r="O19" s="12">
+        <v>31</v>
+      </c>
+      <c r="P19" s="12">
+        <v>31</v>
+      </c>
+      <c r="Q19" s="12">
+        <v>31</v>
+      </c>
+      <c r="R19" s="12">
+        <v>31</v>
+      </c>
+      <c r="S19" s="12">
+        <v>31</v>
+      </c>
+      <c r="T19" s="12">
+        <v>31</v>
+      </c>
+      <c r="U19" s="12">
+        <v>31</v>
+      </c>
+      <c r="V19" s="12">
+        <v>31</v>
+      </c>
+      <c r="W19" s="12">
+        <v>31</v>
+      </c>
+      <c r="X19" s="12">
+        <v>31</v>
+      </c>
+      <c r="Y19" s="12">
+        <v>31</v>
+      </c>
+      <c r="Z19" s="12">
+        <v>31</v>
+      </c>
+      <c r="AA19" s="12">
+        <v>20</v>
+      </c>
+      <c r="AB19" s="12">
+        <v>20</v>
+      </c>
+      <c r="AC19" s="12">
+        <v>20</v>
+      </c>
+      <c r="AD19" s="12">
+        <v>20</v>
+      </c>
+      <c r="AE19" s="12">
+        <v>20</v>
+      </c>
+      <c r="AF19" s="12">
+        <v>20</v>
+      </c>
+      <c r="AG19" s="12">
+        <v>20</v>
+      </c>
+      <c r="AH19" s="12">
+        <v>20</v>
+      </c>
+      <c r="AI19" s="12">
+        <v>20</v>
+      </c>
+      <c r="AJ19" s="12">
+        <v>20</v>
+      </c>
+      <c r="AK19" s="12">
+        <v>20</v>
+      </c>
+      <c r="AL19" s="12">
+        <v>20</v>
+      </c>
+      <c r="AM19" s="12">
+        <v>20</v>
+      </c>
+      <c r="AN19" s="12">
+        <v>20</v>
+      </c>
+      <c r="AO19" s="12">
+        <v>20</v>
+      </c>
+      <c r="AP19" s="12">
+        <v>20</v>
+      </c>
+      <c r="AQ19" s="12">
+        <v>20</v>
+      </c>
+      <c r="AR19" s="12">
+        <v>20</v>
+      </c>
+      <c r="AS19" s="12">
+        <v>20</v>
+      </c>
+      <c r="AT19" s="12">
+        <v>20</v>
+      </c>
+      <c r="AU19" s="12">
+        <v>20</v>
+      </c>
+      <c r="AV19" s="12">
+        <v>31</v>
+      </c>
+      <c r="AW19" s="12">
+        <v>31</v>
+      </c>
+      <c r="AX19" s="12">
+        <v>31</v>
+      </c>
+      <c r="AY19" s="12">
+        <v>31</v>
+      </c>
+      <c r="AZ19" s="12">
+        <v>31</v>
+      </c>
+      <c r="BA19" s="12">
+        <v>31</v>
+      </c>
+      <c r="BB19" s="12">
+        <v>31</v>
+      </c>
+      <c r="BC19" s="12">
+        <v>31</v>
+      </c>
+      <c r="BD19" s="12">
+        <v>31</v>
+      </c>
+      <c r="BE19" s="12">
+        <v>31</v>
+      </c>
+      <c r="BF19" s="12">
+        <v>31</v>
+      </c>
+      <c r="BG19" s="12">
+        <v>31</v>
+      </c>
+      <c r="BH19" s="12">
+        <v>31</v>
+      </c>
+      <c r="BI19" s="12">
+        <v>31</v>
+      </c>
+      <c r="BJ19" s="12">
+        <v>31</v>
+      </c>
+      <c r="BK19" s="12">
+        <v>31</v>
+      </c>
+      <c r="BL19" s="12">
+        <v>31</v>
+      </c>
+      <c r="BM19" s="12">
+        <v>31</v>
+      </c>
+      <c r="BN19" s="12">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:BN16">
+  <conditionalFormatting sqref="A1:BN19">
     <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>51</formula>
     </cfRule>
